--- a/output/experiments/thesis_value_of_information/ununiform-hour/6h-bat-Apr-disturbance-type.xlsx
+++ b/output/experiments/thesis_value_of_information/ununiform-hour/6h-bat-Apr-disturbance-type.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Energy_grid_new\output\experiments\thesis_value_of_information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Energy_grid_new\output\experiments\thesis_value_of_information\uniform-hour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8D06E5-91A4-45E6-859A-E9840DD32FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E116F322-AD7F-4297-97E6-5C0517545D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$S$1:$S$165</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="240">
   <si>
     <t>status</t>
   </si>
@@ -1153,7 +1156,7 @@
   <dimension ref="A1:BD165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4:T21"/>
+      <selection activeCell="B4" sqref="B4:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1651,8 +1654,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>54</v>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -1815,8 +1818,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>54</v>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -1979,8 +1982,8 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>54</v>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
@@ -2143,8 +2146,8 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>54</v>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -2307,8 +2310,8 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>55</v>
@@ -2471,8 +2474,8 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>54</v>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
@@ -2635,8 +2638,8 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>54</v>
+      <c r="B10">
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -2799,8 +2802,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>54</v>
+      <c r="B11">
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
@@ -2963,8 +2966,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>54</v>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -3127,8 +3130,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>54</v>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -3291,8 +3294,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>54</v>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -3455,8 +3458,8 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>54</v>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -3619,8 +3622,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>54</v>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -3783,8 +3786,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>54</v>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -3947,8 +3950,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>54</v>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -4111,8 +4114,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>54</v>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -4275,8 +4278,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>54</v>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -4439,8 +4442,8 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>54</v>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -10507,8 +10510,8 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>54</v>
+      <c r="B58">
+        <v>0</v>
       </c>
       <c r="C58" t="s">
         <v>55</v>
@@ -10671,8 +10674,8 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>54</v>
+      <c r="B59">
+        <v>0</v>
       </c>
       <c r="C59" t="s">
         <v>55</v>
@@ -10835,8 +10838,8 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>54</v>
+      <c r="B60">
+        <v>0</v>
       </c>
       <c r="C60" t="s">
         <v>55</v>
@@ -10999,8 +11002,8 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>54</v>
+      <c r="B61">
+        <v>0</v>
       </c>
       <c r="C61" t="s">
         <v>55</v>
@@ -11163,8 +11166,8 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>54</v>
+      <c r="B62">
+        <v>0</v>
       </c>
       <c r="C62" t="s">
         <v>55</v>
@@ -11327,8 +11330,8 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>54</v>
+      <c r="B63">
+        <v>0</v>
       </c>
       <c r="C63" t="s">
         <v>55</v>
@@ -11491,8 +11494,8 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>54</v>
+      <c r="B64">
+        <v>0</v>
       </c>
       <c r="C64" t="s">
         <v>55</v>
@@ -11655,8 +11658,8 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>54</v>
+      <c r="B65">
+        <v>0</v>
       </c>
       <c r="C65" t="s">
         <v>55</v>
@@ -11819,8 +11822,8 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>54</v>
+      <c r="B66">
+        <v>0</v>
       </c>
       <c r="C66" t="s">
         <v>55</v>
@@ -11983,8 +11986,8 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>54</v>
+      <c r="B67">
+        <v>0</v>
       </c>
       <c r="C67" t="s">
         <v>55</v>
@@ -12147,8 +12150,8 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>54</v>
+      <c r="B68">
+        <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>55</v>
@@ -12311,8 +12314,8 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>54</v>
+      <c r="B69">
+        <v>0</v>
       </c>
       <c r="C69" t="s">
         <v>55</v>
@@ -12475,8 +12478,8 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>54</v>
+      <c r="B70">
+        <v>0</v>
       </c>
       <c r="C70" t="s">
         <v>55</v>
@@ -12639,8 +12642,8 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>54</v>
+      <c r="B71">
+        <v>0</v>
       </c>
       <c r="C71" t="s">
         <v>55</v>
@@ -12803,8 +12806,8 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>54</v>
+      <c r="B72">
+        <v>0</v>
       </c>
       <c r="C72" t="s">
         <v>55</v>
@@ -12967,8 +12970,8 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>54</v>
+      <c r="B73">
+        <v>0</v>
       </c>
       <c r="C73" t="s">
         <v>55</v>
@@ -13131,8 +13134,8 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>54</v>
+      <c r="B74">
+        <v>0</v>
       </c>
       <c r="C74" t="s">
         <v>55</v>
@@ -13295,8 +13298,8 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>54</v>
+      <c r="B75">
+        <v>0</v>
       </c>
       <c r="C75" t="s">
         <v>55</v>
@@ -19363,8 +19366,8 @@
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
-        <v>54</v>
+      <c r="B112">
+        <v>0</v>
       </c>
       <c r="C112" t="s">
         <v>55</v>
@@ -19527,8 +19530,8 @@
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
-        <v>54</v>
+      <c r="B113">
+        <v>0</v>
       </c>
       <c r="C113" t="s">
         <v>55</v>
@@ -19691,8 +19694,8 @@
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
-        <v>54</v>
+      <c r="B114">
+        <v>0</v>
       </c>
       <c r="C114" t="s">
         <v>55</v>
@@ -19855,8 +19858,8 @@
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
-        <v>54</v>
+      <c r="B115">
+        <v>0</v>
       </c>
       <c r="C115" t="s">
         <v>55</v>
@@ -20019,8 +20022,8 @@
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
-        <v>54</v>
+      <c r="B116">
+        <v>0</v>
       </c>
       <c r="C116" t="s">
         <v>55</v>
@@ -20183,8 +20186,8 @@
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
-        <v>54</v>
+      <c r="B117">
+        <v>0</v>
       </c>
       <c r="C117" t="s">
         <v>55</v>
@@ -20347,8 +20350,8 @@
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
-        <v>54</v>
+      <c r="B118">
+        <v>0</v>
       </c>
       <c r="C118" t="s">
         <v>55</v>
@@ -20511,8 +20514,8 @@
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
-        <v>54</v>
+      <c r="B119">
+        <v>0</v>
       </c>
       <c r="C119" t="s">
         <v>55</v>
@@ -20675,8 +20678,8 @@
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
-        <v>54</v>
+      <c r="B120">
+        <v>0</v>
       </c>
       <c r="C120" t="s">
         <v>55</v>
@@ -20839,8 +20842,8 @@
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
-        <v>54</v>
+      <c r="B121">
+        <v>0</v>
       </c>
       <c r="C121" t="s">
         <v>55</v>
@@ -21003,8 +21006,8 @@
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
-        <v>54</v>
+      <c r="B122">
+        <v>0</v>
       </c>
       <c r="C122" t="s">
         <v>55</v>
@@ -21167,8 +21170,8 @@
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
-        <v>54</v>
+      <c r="B123">
+        <v>0</v>
       </c>
       <c r="C123" t="s">
         <v>55</v>
@@ -21331,8 +21334,8 @@
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
-        <v>54</v>
+      <c r="B124">
+        <v>0</v>
       </c>
       <c r="C124" t="s">
         <v>55</v>
@@ -21495,8 +21498,8 @@
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
-        <v>54</v>
+      <c r="B125">
+        <v>0</v>
       </c>
       <c r="C125" t="s">
         <v>55</v>
@@ -21659,8 +21662,8 @@
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
-        <v>54</v>
+      <c r="B126">
+        <v>0</v>
       </c>
       <c r="C126" t="s">
         <v>55</v>
@@ -21823,8 +21826,8 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
-        <v>54</v>
+      <c r="B127">
+        <v>0</v>
       </c>
       <c r="C127" t="s">
         <v>55</v>
@@ -21987,8 +21990,8 @@
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
-        <v>54</v>
+      <c r="B128">
+        <v>0</v>
       </c>
       <c r="C128" t="s">
         <v>55</v>
@@ -22151,8 +22154,8 @@
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
-        <v>54</v>
+      <c r="B129">
+        <v>0</v>
       </c>
       <c r="C129" t="s">
         <v>55</v>
